--- a/inputs/Compartments_dimensions_calculations.xlsx
+++ b/inputs/Compartments_dimensions_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PradoDomercq\Documents\Python Scripts\UTOPIA_model\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2470863-3A99-4F44-881B-133E088B1C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC72D8-3218-4F98-BF37-E0A90C81CAEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{72D2F3D1-5CB4-4416-97A8-11ADB55EFEEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Cname</t>
   </si>
@@ -148,13 +148,31 @@
   </si>
   <si>
     <t>The estimated volume of Earth is approximately 1.083E+21 cubic meters.</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>OECD POV and LRTP Screening Tool</t>
+  </si>
+  <si>
+    <t>Kundzewicz, Zbigniew W. "Global  freshwater resources for sustainable development." Ecohydrology &amp; Hydrobiology 7.2 (2007): 125-134.</t>
+  </si>
+  <si>
+    <t>Kevern L.,et al. 4.9 - The impact of climate change on coastal fisheries and aquaculture. Treatise on Estuarine and Coastal Science, Volume 4, 2024, Pages 226-263. (https://doi.org/10.1016/B978-0-323-90798-9.00008-1)</t>
+  </si>
+  <si>
+    <t>FAO 2020. Land use in agriculture by the numbers (https://www.fao.org/sustainability/news/detail/en/c/1274219/)</t>
+  </si>
+  <si>
+    <t>Liu, Z., He, C., Zhou, Y. and Wu, J., 2014. How much of the world’s land has been urbanized, really? A hierarchical framework for avoiding confusion. Landscape Ecology, 29, pp.763-771.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +190,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,14 +234,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -536,7 +562,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +570,7 @@
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
@@ -570,14 +596,14 @@
       </c>
       <c r="B2" s="1">
         <f>D2*C2</f>
-        <v>3442888068750000</v>
+        <v>1631399269500000.3</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <f>C37</f>
-        <v>344288806875000</v>
+        <v>326279853900000.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -586,13 +612,14 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B18" si="0">D3*C3</f>
-        <v>3.44288806875E+16</v>
+        <v>3.2627985390000008E+16</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>344288806875000</v>
+      <c r="D3" s="1">
+        <f>D2</f>
+        <v>326279853900000.06</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,13 +628,14 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1.0328664206249999E+18</v>
+        <v>1.3051194156000003E+18</v>
       </c>
       <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>344288806875000</v>
+        <v>4000</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D2</f>
+        <v>326279853900000.06</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -616,14 +644,14 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>88279181250000</v>
+        <v>67092177750000</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="D5" s="1">
         <f>C36</f>
-        <v>8827918125000</v>
+        <v>26836871100000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -632,13 +660,14 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>88279181250000</v>
+        <v>1341843555000000</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>8827918125000</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5</f>
+        <v>26836871100000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -647,10 +676,10 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>90542750000000</v>
+        <v>9054275000000</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <f>C28</f>
@@ -663,12 +692,13 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>271628250000000</v>
+        <v>90542750000000</v>
       </c>
       <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D7</f>
         <v>9054275000000</v>
       </c>
     </row>
@@ -678,12 +708,13 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>271628250000</v>
+        <v>905427500000</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
-      </c>
-      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D7</f>
         <v>9054275000000</v>
       </c>
     </row>
@@ -693,13 +724,14 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>10328664206250</v>
+        <v>9788395617000.002</v>
       </c>
       <c r="C10">
         <v>0.03</v>
       </c>
-      <c r="D10">
-        <v>344288806875000</v>
+      <c r="D10" s="1">
+        <f>D2</f>
+        <v>326279853900000.06</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -708,13 +740,14 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>264837543750</v>
+        <v>2683687110000</v>
       </c>
       <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>8827918125000</v>
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D5</f>
+        <v>26836871100000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -723,10 +756,10 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>2810651000000</v>
+        <v>562130200000</v>
       </c>
       <c r="C12">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D12" s="1">
         <v>56213020000000</v>
@@ -738,12 +771,13 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>2810651000000</v>
+        <v>5621302000000</v>
       </c>
       <c r="C13">
-        <v>0.05</v>
-      </c>
-      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D12</f>
         <v>56213020000000</v>
       </c>
     </row>
@@ -753,10 +787,10 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>4437870000000</v>
+        <v>887574000000</v>
       </c>
       <c r="C14">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
         <v>88757400000000</v>
@@ -768,10 +802,10 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>4437870000000</v>
+        <v>8875740000000</v>
       </c>
       <c r="C15">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
         <v>88757400000000</v>
@@ -798,10 +832,10 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>591716000000</v>
+        <v>295858000000</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
         <v>2958580000000</v>
@@ -813,10 +847,10 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>5.101E+17</v>
+        <v>3.0606E+18</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D18" s="1">
         <f>E23</f>
@@ -824,7 +858,7 @@
       </c>
       <c r="E18" s="1">
         <f>SUM(D2,D5,D7,D12,D14,D16)</f>
-        <v>510100000000000</v>
+        <v>510100000000000.06</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -834,13 +868,16 @@
       <c r="C22" t="s">
         <v>34</v>
       </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -850,14 +887,17 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(D2,D5,D7,D12,D14,D16)</f>
-        <v>510100000000000</v>
+        <v>510100000000000.06</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="1">
         <v>510100000000000</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <f>SUM(B2:B18)</f>
-        <v>1.5814034643477501E+18</v>
+        <v>4.4015175448476774E+18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -872,6 +912,9 @@
         <f>(B24/B23)*100</f>
         <v>28.999999999999996</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="1">
         <f>E23*F24/100</f>
         <v>147929000000000</v>
@@ -886,11 +929,14 @@
       </c>
       <c r="B25" s="1">
         <f>SUM(D7,D5,D2)</f>
-        <v>362171000000000</v>
+        <v>362171000000000.06</v>
       </c>
       <c r="C25">
         <f>(B25/B23)*100</f>
-        <v>71</v>
+        <v>71.000000000000014</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="1">
         <f>E23*F25/100</f>
@@ -899,12 +945,13 @@
       <c r="F25">
         <v>71</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I26" s="2"/>
+      <c r="D26" s="5"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -913,6 +960,7 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -925,6 +973,9 @@
         <f>E25*B28/100</f>
         <v>9054275000000</v>
       </c>
+      <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -937,6 +988,9 @@
         <f>E25*B29/100</f>
         <v>353116725000000</v>
       </c>
+      <c r="D29" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -954,7 +1008,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -962,7 +1016,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -970,31 +1024,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="C36" s="1">
         <f>C29*B36/100</f>
-        <v>8827918125000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26836871100000</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37">
-        <v>97.5</v>
+        <f>100-B36</f>
+        <v>92.4</v>
       </c>
       <c r="C37" s="1">
         <f>C29*B37/100</f>
-        <v>344288806875000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>326279853900000.06</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -1002,41 +1063,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <f>B41*E24/100</f>
-        <v>2958580000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56213020000000</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <f>B42*E24/100</f>
-        <v>56213020000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4437870000000</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43">
         <f>100-B42-B41</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1">
         <f>B43*E24/100</f>
-        <v>88757400000000</v>
+        <v>87278110000000</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/Compartments_dimensions_calculations.xlsx
+++ b/inputs/Compartments_dimensions_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PradoDomercq\Documents\Python Scripts\UTOPIA_model\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC72D8-3218-4F98-BF37-E0A90C81CAEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92942607-9C67-46E0-B5BA-0CF2629FE98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{72D2F3D1-5CB4-4416-97A8-11ADB55EFEEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Cname</t>
   </si>
@@ -69,24 +69,12 @@
     <t>Sediment_Coast</t>
   </si>
   <si>
-    <t>Urban_Soil_Surface</t>
-  </si>
-  <si>
-    <t>Urban_Soil</t>
-  </si>
-  <si>
     <t>Background_Soil_Surface</t>
   </si>
   <si>
     <t>Background_Soil</t>
   </si>
   <si>
-    <t>Agricultural_Soil_Surface</t>
-  </si>
-  <si>
-    <t>Agricultural_Soil</t>
-  </si>
-  <si>
     <t>Air</t>
   </si>
   <si>
@@ -166,6 +154,33 @@
   </si>
   <si>
     <t>Liu, Z., He, C., Zhou, Y. and Wu, J., 2014. How much of the world’s land has been urbanized, really? A hierarchical framework for avoiding confusion. Landscape Ecology, 29, pp.763-771.</t>
+  </si>
+  <si>
+    <t>Impacted_soil (Agri+Urban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Occurrence of Sandy Shorelines: The total length of the world’s ice-free shoreline determined from this analysis is 1.11 million km and 31% of the world’s ice-free shoreline are sandy. </t>
+  </si>
+  <si>
+    <t>sandy_shoreline_km</t>
+  </si>
+  <si>
+    <t>Sandy_beaches_SA_m2</t>
+  </si>
+  <si>
+    <t>average_beach_width_m</t>
+  </si>
+  <si>
+    <t>Beaches_Soil_Surface</t>
+  </si>
+  <si>
+    <t>Beaches_Deep_Soil</t>
+  </si>
+  <si>
+    <t>Impacted_Soil_Surface</t>
+  </si>
+  <si>
+    <t>Impacted_Soil</t>
   </si>
 </sst>
 </file>
@@ -239,10 +254,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -559,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DD9D7-F6C0-41E6-B544-8483B924FD2D}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,7 +585,7 @@
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
@@ -752,98 +767,103 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>562130200000</v>
+        <v>3441</v>
       </c>
       <c r="C12">
         <v>0.01</v>
       </c>
       <c r="D12" s="1">
-        <v>56213020000000</v>
+        <f>C48</f>
+        <v>344100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>5621302000000</v>
+        <v>34410</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13" s="1">
         <f>D12</f>
-        <v>56213020000000</v>
+        <v>344100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>887574000000</v>
+        <v>872781096559</v>
       </c>
       <c r="C14">
         <v>0.01</v>
       </c>
-      <c r="D14">
-        <v>88757400000000</v>
+      <c r="D14" s="1">
+        <f>C49</f>
+        <v>87278109655900</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>8875740000000</v>
+        <v>8727810965590</v>
       </c>
       <c r="C15">
         <v>0.1</v>
       </c>
       <c r="D15">
-        <v>88757400000000</v>
+        <f>D14</f>
+        <v>87278109655900</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>591716000000</v>
+        <v>12130178000000</v>
       </c>
       <c r="C16">
         <v>0.2</v>
       </c>
-      <c r="D16">
-        <v>2958580000000</v>
+      <c r="D16" s="1">
+        <f>C45</f>
+        <v>60650890000000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>295858000000</v>
+        <v>6065089000000</v>
       </c>
       <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
-        <v>2958580000000</v>
+      <c r="D17" s="1">
+        <f>D16</f>
+        <v>60650890000000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -863,46 +883,46 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
         <f>SUM(D2,D5,D7,D12,D14,D16)</f>
         <v>510100000000000.06</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>42</v>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>510100000000000</v>
       </c>
       <c r="I23" s="3">
         <f>SUM(B2:B18)</f>
-        <v>4.4015175448476774E+18</v>
+        <v>4.4015285063865769E+18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <f>SUM(D16,D14,D12)</f>
@@ -912,8 +932,8 @@
         <f>(B24/B23)*100</f>
         <v>28.999999999999996</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="1">
         <f>E23*F24/100</f>
@@ -925,7 +945,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(D7,D5,D2)</f>
@@ -935,8 +955,8 @@
         <f>(B25/B23)*100</f>
         <v>71.000000000000014</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>42</v>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="1">
         <f>E23*F25/100</f>
@@ -945,26 +965,26 @@
       <c r="F25">
         <v>71</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>40</v>
+      <c r="I25" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="5"/>
-      <c r="I26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -973,13 +993,13 @@
         <f>E25*B28/100</f>
         <v>9054275000000</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>43</v>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>97.5</v>
@@ -988,45 +1008,45 @@
         <f>E25*B29/100</f>
         <v>353116725000000</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>43</v>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>68.7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>31.3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>7.6</v>
@@ -1035,13 +1055,13 @@
         <f>C29*B36/100</f>
         <v>26836871100000</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <f>100-B36</f>
@@ -1051,21 +1071,21 @@
         <f>C29*B37/100</f>
         <v>326279853900000.06</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -1074,13 +1094,13 @@
         <f>B41*E24/100</f>
         <v>56213020000000</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -1089,13 +1109,13 @@
         <f>B42*E24/100</f>
         <v>4437870000000</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <f>100-B42-B41</f>
@@ -1104,6 +1124,51 @@
       <c r="C43" s="1">
         <f>B43*E24/100</f>
         <v>87278110000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <f>C41+C42</f>
+        <v>60650890000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <f>E48*E49/1000</f>
+        <v>344100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <f>(11100000)*0.31</f>
+        <v>3441000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <f>E24-C45-C48</f>
+        <v>87278109655900</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
